--- a/Hardware/C3-27-epaper-touch/production/C3-BOM.xlsx
+++ b/Hardware/C3-27-epaper-touch/production/C3-BOM.xlsx
@@ -54,7 +54,7 @@
     <t>AFC24-S24FIC-00</t>
   </si>
   <si>
-    <t>C2934560</t>
+    <t>C31850</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -736,19 +736,17 @@
           <t>R15</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>R_0402_1005Metric</t>
-        </is>
+      <c r="B30" t="s">
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>47K</t>
+          <t>47.5K</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C137974</t>
+          <t>C137715</t>
         </is>
       </c>
     </row>
@@ -820,20 +818,16 @@
           <t>R14</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>R_0201_0603Metric</t>
-        </is>
+      <c r="B34" t="s">
+        <v>4</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>22K</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>C31850</t>
-        </is>
+      <c r="D34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5">
@@ -847,8 +841,10 @@
           <t>ESP32-C3</t>
         </is>
       </c>
-      <c r="D35" t="s">
-        <v>11</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>C2934560</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Hardware/C3-27-epaper-touch/production/C3-BOM.xlsx
+++ b/Hardware/C3-27-epaper-touch/production/C3-BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11" count="11">
   <si>
     <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>AFC24-S24FIC-00</t>
-  </si>
-  <si>
-    <t>C31850</t>
   </si>
 </sst>
 </file>
@@ -131,10 +128,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -591,257 +588,239 @@
     <row r="23" spans="1:4" ht="13.5">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>100nF</t>
+          <t>3.6K</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C28233</t>
+          <t>C22980</t>
         </is>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3.6K</t>
+          <t>C_Polarized 100uF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C22980</t>
+          <t>C129289</t>
         </is>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C_Polarized 100uF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>C129289</t>
-        </is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FH34SRJ-6S-0.5SH50-Hirose</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
+          <t>Conn_01x06_Female</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>C224194</t>
+        </is>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.5">
       <c r="A27" t="inlineStr">
         <is>
-          <t>J4</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>FH34SRJ-6S-0.5SH50-Hirose</t>
-        </is>
+          <t>R9,R8</t>
+        </is>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Conn_01x06_Female</t>
+          <t>4.7K</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C224194</t>
+          <t>C23162</t>
         </is>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5">
       <c r="A28" t="inlineStr">
         <is>
-          <t>R9,R8</t>
-        </is>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CP2102-QFN50P500X500X80-29N-D</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.7K</t>
+          <t>CP2102N-A02-GQFN28R</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C23162</t>
+          <t>C964632</t>
         </is>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.5">
       <c r="A29" t="inlineStr">
         <is>
-          <t>U2</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CP2102-QFN50P500X500X80-29N-D</t>
-        </is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CP2102N-A02-GQFN28R</t>
+          <t>47.5K</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C964632</t>
+          <t>C137715</t>
         </is>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.5">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R15</t>
-        </is>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SOT-323_SC-70</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>47.5K</t>
+          <t>Si1308</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C137715</t>
+          <t>C469327</t>
         </is>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.5">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SOT-323_SC-70</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Si1308</t>
-        </is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C469327</t>
+          <t>C19666</t>
         </is>
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.5">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C12</t>
-        </is>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SWPA4030S1R0NT</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10uH</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C19666</t>
+          <t>C38117</t>
         </is>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.5">
       <c r="A33" t="inlineStr">
         <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>SWPA4030S1R0NT</t>
-        </is>
+          <t>R14</t>
+        </is>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10uH</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C38117</t>
+          <t>C31850</t>
         </is>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.5">
       <c r="A34" t="inlineStr">
         <is>
-          <t>R14</t>
-        </is>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>22K</t>
-        </is>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13.5">
-      <c r="A35" t="inlineStr">
-        <is>
           <t>U1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>ESP32-C3</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>C2934560</t>
         </is>

--- a/Hardware/C3-27-epaper-touch/production/C3-BOM.xlsx
+++ b/Hardware/C3-27-epaper-touch/production/C3-BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
   <si>
     <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>AFC24-S24FIC-00</t>
+  </si>
+  <si>
+    <t>C31850</t>
   </si>
 </sst>
 </file>
@@ -128,10 +131,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -588,239 +591,257 @@
     <row r="23" spans="1:4" ht="13.5">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>C13</t>
         </is>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3.6K</t>
+          <t>100nF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C22980</t>
+          <t>C28233</t>
         </is>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C16</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C_Polarized 100uF</t>
+          <t>3.6K</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C129289</t>
+          <t>C22980</t>
         </is>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.5">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>C16</t>
         </is>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
+          <t>C_Polarized 100uF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>C129289</t>
+        </is>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.5">
       <c r="A26" t="inlineStr">
         <is>
-          <t>J4</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>FH34SRJ-6S-0.5SH50-Hirose</t>
-        </is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Conn_01x06_Female</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>C224194</t>
-        </is>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.5">
       <c r="A27" t="inlineStr">
         <is>
-          <t>R9,R8</t>
-        </is>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FH34SRJ-6S-0.5SH50-Hirose</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.7K</t>
+          <t>Conn_01x06_Female</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C23162</t>
+          <t>C224194</t>
         </is>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.5">
       <c r="A28" t="inlineStr">
         <is>
-          <t>U2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CP2102-QFN50P500X500X80-29N-D</t>
-        </is>
+          <t>R9,R8</t>
+        </is>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CP2102N-A02-GQFN28R</t>
+          <t>4.7K</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C964632</t>
+          <t>C23162</t>
         </is>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.5">
       <c r="A29" t="inlineStr">
         <is>
-          <t>R15</t>
-        </is>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
+          <t>U2</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CP2102-QFN50P500X500X80-29N-D</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>47.5K</t>
+          <t>CP2102N-A02-GQFN28R</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C137715</t>
+          <t>C964632</t>
         </is>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.5">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>SOT-323_SC-70</t>
-        </is>
+          <t>R15</t>
+        </is>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Si1308</t>
+          <t>47.5K</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C469327</t>
+          <t>C137715</t>
         </is>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.5">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C12</t>
-        </is>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SOT-323_SC-70</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Si1308</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C19666</t>
+          <t>C469327</t>
         </is>
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.5">
       <c r="A32" t="inlineStr">
         <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SWPA4030S1R0NT</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>10uH</t>
-        </is>
+          <t>C12</t>
+        </is>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C38117</t>
+          <t>C19666</t>
         </is>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.5">
       <c r="A33" t="inlineStr">
         <is>
-          <t>R14</t>
-        </is>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SWPA4030S1R0NT</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>10uH</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C31850</t>
+          <t>C38117</t>
         </is>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.5">
       <c r="A34" t="inlineStr">
         <is>
+          <t>R14</t>
+        </is>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22K</t>
+        </is>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.5">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>U1</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>ESP32-C3</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>C2934560</t>
         </is>

--- a/Hardware/C3-27-epaper-touch/production/C3-BOM.xlsx
+++ b/Hardware/C3-27-epaper-touch/production/C3-BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11" count="11">
   <si>
     <t>C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>AFC24-S24FIC-00</t>
-  </si>
-  <si>
-    <t>C31850</t>
   </si>
 </sst>
 </file>
@@ -134,7 +131,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -597,15 +594,11 @@
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>100nF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>C28233</t>
-        </is>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.5">
@@ -826,8 +819,10 @@
           <t>22K</t>
         </is>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>C31850</t>
+        </is>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.5">
